--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1903.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1903.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.811219366710448</v>
+        <v>1.921128988265991</v>
       </c>
       <c r="B1">
-        <v>3.459213142515669</v>
+        <v>3.023487329483032</v>
       </c>
       <c r="C1">
-        <v>2.901002471828609</v>
+        <v>3.201297283172607</v>
       </c>
       <c r="D1">
-        <v>2.269642300272908</v>
+        <v>1.058896541595459</v>
       </c>
       <c r="E1">
-        <v>1.275708154119796</v>
+        <v>0.6827820539474487</v>
       </c>
     </row>
   </sheetData>
